--- a/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
+++ b/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -809,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,17 +821,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -840,13 +861,593 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.31</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
+++ b/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,355 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.9976</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.91</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2060</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009893</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011788</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银聚益混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>30.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006240</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006241</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融医疗健康精选混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.34</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011789</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银聚益混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>30.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1394,64 +1104,354 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.91</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.31</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
+++ b/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>3.91</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.31</v>
       </c>
     </row>
@@ -515,6 +532,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7901</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6156</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1098,7 +1665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
+++ b/数据整理/stocks/A股/创业板/301096-百诚医药.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>3.91</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2022-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.31</v>
       </c>
     </row>
@@ -532,6 +549,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8368</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001463</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信一带一路战略主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1081,7 +1724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1665,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
